--- a/JournalTravail/Journal_Travail_Siu.xlsx
+++ b/JournalTravail/Journal_Travail_Siu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -139,10 +139,10 @@
     <t xml:space="preserve">Ajout de l’option «Salle courante», gestion basique de la résolution de l’écran et de la position de la fenêtre. Ajout d’une console de log sur l’interface</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajout de l’option pour créer un jar exécutable du client.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restructuration des packages du serveur et nettoyage de l’arborescence.</t>
+    <t xml:space="preserve">Réunion groupe réduit: Ajout de l’option pour créer un jar exécutable du client + debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réunion groupe réduit: Restructuration des packages du serveur et nettoyage de l’arborescence.</t>
   </si>
   <si>
     <t xml:space="preserve">Implémentation de l’envoi des requêtes du client vers le serveur. Gestion d’exception, et modification des adresses IP</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Première communication client-serveur modifiant les couleurs du plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Conversion heure &lt;-- -&gt; période fonctionnelle</t>
+    <t xml:space="preserve">Réunion groupe réduit: Conversion heure &lt;-- -&gt; période fonctionnelle + debugging</t>
   </si>
   <si>
     <t xml:space="preserve">Réunion de groupe afin de définir les dernières tâches</t>
@@ -479,19 +479,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:49"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.89068825910931"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="53.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="8.89"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
         <v>43238</v>
       </c>
@@ -3019,10 +3019,10 @@
         <v>39</v>
       </c>
       <c r="C36" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
         <v>43239</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
         <v>43240</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,45 +3111,33 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="15"/>
+      <c r="A45" s="13" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
-        <v>43244</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13"/>
-      <c r="B49" s="21" t="s">
+      <c r="B46" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="22" t="n">
-        <f aca="false">SUM(C5:C48)</f>
-        <v>114</v>
-      </c>
-    </row>
+      <c r="C46" s="22" t="n">
+        <f aca="false">SUM(C5:C45)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/JournalTravail/Journal_Travail_Siu.xlsx
+++ b/JournalTravail/Journal_Travail_Siu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">Journal de travail</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">Feedback du cahier des charges et de la planification</t>
   </si>
   <si>
-    <t xml:space="preserve">Début du projet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réunion: Refaire la planification initiale</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t xml:space="preserve">Réunion durant les vacances</t>
   </si>
   <si>
-    <t xml:space="preserve">vacances</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création des classes pour la communication Java — MySQL</t>
   </si>
   <si>
@@ -124,16 +118,10 @@
     <t xml:space="preserve">Réunion de groupe afin de définir les tâches à faire durant la période de l’ascension</t>
   </si>
   <si>
-    <t xml:space="preserve">ascension</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajout des boutons pour la sélection de l’étage, des plans de Cheseaux. Affichage des étages G et J. Réfléxion sur l’affichage des étages qui sont séparés en plusieurs images.</t>
   </si>
   <si>
     <t xml:space="preserve">Gestion des plans sur des images multiples pour Cheseaux. Résolution de bug sur St-Roch. Appel explicite sur le garbage collector afin de réduire la consommation de ram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lundi de truc</t>
   </si>
   <si>
     <t xml:space="preserve">Ajout de l’option «Salle courante», gestion basique de la résolution de l’écran et de la position de la fenêtre. Ajout d’une console de log sur l’interface</t>
@@ -181,7 +169,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY;@"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,19 +211,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -309,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,7 +341,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,19 +349,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,7 +369,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,19 +450,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="53.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="8.89"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,7 +2526,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2565,8 +2536,12 @@
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>43153</v>
       </c>
@@ -2579,8 +2554,9 @@
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>43154</v>
       </c>
@@ -2593,8 +2569,9 @@
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>43160</v>
       </c>
@@ -2605,14 +2582,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>43162</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="n">
@@ -2621,8 +2598,9 @@
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
         <v>43165</v>
       </c>
@@ -2635,12 +2613,13 @@
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <v>43167</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="15" t="n">
@@ -2649,12 +2628,13 @@
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
         <v>43167</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15" t="n">
@@ -2663,31 +2643,29 @@
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>43174</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="17" t="n">
-        <v>43174</v>
-      </c>
+      <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
         <v>43176</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="15" t="n">
         <v>2.5</v>
@@ -2695,27 +2673,28 @@
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <v>43177</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>15</v>
+      <c r="B14" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>43179</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="15" t="n">
         <v>2</v>
@@ -2723,13 +2702,14 @@
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
         <v>43183</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>17</v>
+      <c r="B16" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="15" t="n">
         <v>8</v>
@@ -2737,13 +2717,14 @@
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>43186</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="15" t="n">
         <v>2</v>
@@ -2751,13 +2732,14 @@
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>43189</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>18</v>
+      <c r="B18" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="15" t="n">
         <v>4</v>
@@ -2765,33 +2747,29 @@
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
         <v>43193</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="17" t="n">
-        <v>43192</v>
-      </c>
-      <c r="E19" s="17" t="n">
-        <v>43198</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
         <v>43197</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>21</v>
+      <c r="B20" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="15" t="n">
         <v>6</v>
@@ -2799,13 +2777,14 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
         <v>43200</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="15" t="n">
         <v>2</v>
@@ -2813,13 +2792,14 @@
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>43202</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>23</v>
+      <c r="B22" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="15" t="n">
         <v>2</v>
@@ -2828,24 +2808,24 @@
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
         <v>43205</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>24</v>
+      <c r="B23" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
         <v>43208</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="15" t="n">
         <v>2</v>
@@ -2854,12 +2834,12 @@
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
         <v>43209</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="15" t="n">
         <v>2.5</v>
@@ -2868,12 +2848,12 @@
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
         <v>43211</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>27</v>
+      <c r="B26" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="15" t="n">
         <v>2</v>
@@ -2886,8 +2866,8 @@
       <c r="A27" s="13" t="n">
         <v>43218</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>28</v>
+      <c r="B27" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="15" t="n">
         <v>8</v>
@@ -2896,10 +2876,10 @@
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
-      <c r="B28" s="20" t="s">
-        <v>29</v>
+      <c r="B28" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="15" t="n">
         <v>1</v>
@@ -2908,10 +2888,10 @@
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
-      <c r="B29" s="20" t="s">
-        <v>30</v>
+      <c r="B29" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="15" t="n">
         <v>4</v>
@@ -2920,12 +2900,12 @@
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
         <v>43223</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="15" t="n">
         <v>2</v>
@@ -2934,12 +2914,12 @@
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="n">
         <v>43227</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>32</v>
+      <c r="B31" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C31" s="15" t="n">
         <v>3</v>
@@ -2948,32 +2928,25 @@
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
         <v>43228</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="17" t="n">
-        <v>43230</v>
-      </c>
-      <c r="E32" s="17" t="n">
-        <v>43231</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="n">
         <v>43230</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>35</v>
+      <c r="B33" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C33" s="15" t="n">
         <v>2</v>
@@ -2982,151 +2955,146 @@
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
         <v>43233</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>36</v>
+      <c r="B34" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C34" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="n">
-        <v>43241</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
         <v>43237</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>38</v>
+      <c r="B35" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C35" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
         <v>43238</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>39</v>
+      <c r="B36" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C36" s="15" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
         <v>43239</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>40</v>
+      <c r="B37" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C37" s="15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
         <v>43239</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>41</v>
+      <c r="B38" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C38" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
         <v>43239</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>42</v>
+      <c r="B39" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C39" s="15" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
         <v>43239</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>43</v>
+      <c r="B40" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C40" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
         <v>43240</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>44</v>
+      <c r="B41" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="15" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
         <v>43241</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C42" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
         <v>43241</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>46</v>
+      <c r="B43" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C43" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
         <v>43242</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>47</v>
+      <c r="B44" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C44" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
         <v>43244</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>48</v>
+      <c r="B45" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13"/>
-      <c r="B46" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="22" t="n">
+      <c r="B46" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="21" t="n">
         <f aca="false">SUM(C5:C45)</f>
         <v>120</v>
       </c>
@@ -3137,7 +3105,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
